--- a/Levantamento de dados/DadosCF.xlsx
+++ b/Levantamento de dados/DadosCF.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Bachega\Desktop\Plant.ai\Levantamento de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Nova pasta\Plant.ai\Levantamento de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5057097B-8753-4039-9108-F103E50EEC07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0823508B-B4BD-43C4-811C-6268FD8A6D2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Preços" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Tipos de plantas</t>
   </si>
@@ -88,17 +88,89 @@
   </si>
   <si>
     <t>G1.</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>IdPlanta</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Fruta</t>
+  </si>
+  <si>
+    <t>Temperatura Miníma (ºC)</t>
+  </si>
+  <si>
+    <t>Temperatura Maxíma(ºC)</t>
+  </si>
+  <si>
+    <t>Temp. Min. Ideal (ºC)</t>
+  </si>
+  <si>
+    <t>Temp. Max. Ideal (ºC)</t>
+  </si>
+  <si>
+    <t>Batata</t>
+  </si>
+  <si>
+    <t>legume</t>
+  </si>
+  <si>
+    <t>Cenoura</t>
+  </si>
+  <si>
+    <t>Legume</t>
+  </si>
+  <si>
+    <t>Beterraba</t>
+  </si>
+  <si>
+    <t>Abobrinha</t>
+  </si>
+  <si>
+    <t>Alface</t>
+  </si>
+  <si>
+    <t>Verdura</t>
+  </si>
+  <si>
+    <t>Acelga</t>
+  </si>
+  <si>
+    <t>Brocólis</t>
+  </si>
+  <si>
+    <t>Chuchu</t>
+  </si>
+  <si>
+    <t>Couve-flor</t>
+  </si>
+  <si>
+    <t>Orquídeas</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Tempo médio de germinação (Dias) / (vezes ao ano)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -140,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,20 +325,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -277,10 +370,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,10 +689,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8F8C58-4AC5-4978-AA9D-52FFD3D51BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -764,4 +862,347 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/Levantamento de dados/DadosCF.xlsx
+++ b/Levantamento de dados/DadosCF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Nova pasta\Plant.ai\Levantamento de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Plant.ai\Levantamento de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Tipos de plantas</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Tempo médio de germinação (Dias) / (vezes ao ano)</t>
+  </si>
+  <si>
+    <t>Salsinha</t>
+  </si>
+  <si>
+    <t>Pimenta-vermelha</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,16 +872,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
@@ -1131,7 +1137,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -1199,6 +1205,66 @@
       </c>
       <c r="H13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Levantamento de dados/DadosCF.xlsx
+++ b/Levantamento de dados/DadosCF.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Preços" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Tipos de plantas</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Fonte: Cepea USP/</t>
   </si>
   <si>
-    <t>Valor final Varejo kg.</t>
-  </si>
-  <si>
     <t>Tomate Italiano</t>
   </si>
   <si>
@@ -69,9 +67,6 @@
     <t>Agregado.</t>
   </si>
   <si>
-    <t>Valor produtor varejo kg.</t>
-  </si>
-  <si>
     <t>Revista HFB/</t>
   </si>
   <si>
@@ -166,6 +161,48 @@
   </si>
   <si>
     <t>Pimenta-vermelha</t>
+  </si>
+  <si>
+    <t>Temperatura Máxima</t>
+  </si>
+  <si>
+    <t>Temperatura Mínima</t>
+  </si>
+  <si>
+    <t>1º Quartil</t>
+  </si>
+  <si>
+    <t>3º Quartil</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Salsa</t>
+  </si>
+  <si>
+    <t>Orquidea</t>
+  </si>
+  <si>
+    <t>Valor produtor varejo kg/un.</t>
+  </si>
+  <si>
+    <t>Valor final Varejo kg/un.</t>
+  </si>
+  <si>
+    <t>Tempo de plantio (dias).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 80 a 100 </t>
+  </si>
+  <si>
+    <t>Alerta(Frio)</t>
+  </si>
+  <si>
+    <t>Alerta(Calor)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +213,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +234,14 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +266,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -233,9 +288,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -246,48 +299,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -341,6 +352,58 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -351,36 +414,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,29 +781,33 @@
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>1.9</v>
@@ -747,35 +819,43 @@
         <f>D2-C2</f>
         <v>3.22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="F2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>5.5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>20</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>D3-C3</f>
         <v>14.5</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
@@ -788,25 +868,40 @@
         <f>D5-C5</f>
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="F5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11.96</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6-C6</f>
+        <v>9.16</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>16</v>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>3.75</v>
@@ -818,51 +913,63 @@
         <f>D8-C8</f>
         <v>16.25</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F6 A8:F9">
+  <conditionalFormatting sqref="A1:F6 A8:F9 G1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <color theme="5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -874,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,29 +1003,29 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="G2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>42</v>
+      <c r="H2" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -952,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -978,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1004,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1030,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -1056,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1082,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1108,10 +1215,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1134,10 +1241,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -1160,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -1186,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1209,10 +1316,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1235,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1252,7 +1359,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -1266,6 +1373,214 @@
       <c r="G16">
         <v>30</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="31">
+        <v>10</v>
+      </c>
+      <c r="C5" s="31">
+        <f ca="1">_xlfn.QUARTILE.INC(B5:G5,1)</f>
+        <v>16</v>
+      </c>
+      <c r="D5" s="32">
+        <f ca="1">AVERAGE(B5:G5)</f>
+        <v>22</v>
+      </c>
+      <c r="E5" s="32">
+        <f ca="1">MEDIAN(B5:G5)</f>
+        <v>22</v>
+      </c>
+      <c r="F5" s="33">
+        <f ca="1">_xlfn.QUARTILE.INC(B5:G5,3)</f>
+        <v>28</v>
+      </c>
+      <c r="G5" s="33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>9</v>
+      </c>
+      <c r="C6" s="31">
+        <f ca="1">_xlfn.QUARTILE.INC(B6:G6,1)</f>
+        <v>14.25</v>
+      </c>
+      <c r="D6" s="32">
+        <f ca="1">AVERAGE(B6:G6)</f>
+        <v>19.5</v>
+      </c>
+      <c r="E6" s="32">
+        <f ca="1">MEDIAN(B6:G6)</f>
+        <v>19.5</v>
+      </c>
+      <c r="F6" s="33">
+        <f ca="1">_xlfn.QUARTILE.INC(B6:G6,3)</f>
+        <v>24.75</v>
+      </c>
+      <c r="G6" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
+        <f ca="1">_xlfn.QUARTILE.INC(B7:G7,1)</f>
+        <v>12</v>
+      </c>
+      <c r="D7" s="32">
+        <f ca="1">AVERAGE(B7:G7)</f>
+        <v>16</v>
+      </c>
+      <c r="E7" s="32">
+        <f ca="1">MEDIAN(B7:G7)</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="33">
+        <f ca="1">_xlfn.QUARTILE.INC(B7:G7,3)</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31">
+        <v>18</v>
+      </c>
+      <c r="C8" s="31">
+        <f ca="1">_xlfn.QUARTILE.INC(B8:G8,1)</f>
+        <v>22.25</v>
+      </c>
+      <c r="D8" s="32">
+        <f ca="1">AVERAGE(B8:G8)</f>
+        <v>26.5</v>
+      </c>
+      <c r="E8" s="32">
+        <f ca="1">MEDIAN(B8:G8)</f>
+        <v>26.5</v>
+      </c>
+      <c r="F8" s="33">
+        <f ca="1">_xlfn.QUARTILE.INC(B8:G8,3)</f>
+        <v>30.75</v>
+      </c>
+      <c r="G8" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="31">
+        <v>15</v>
+      </c>
+      <c r="C9" s="31">
+        <f ca="1">_xlfn.QUARTILE.INC(B9:G9,1)</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="32">
+        <f ca="1">AVERAGE(B9:G9)</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="32">
+        <f ca="1">MEDIAN(B9:G9)</f>
+        <v>25</v>
+      </c>
+      <c r="F9" s="33">
+        <f ca="1">_xlfn.QUARTILE.INC(B9:G9,3)</f>
+        <v>30</v>
+      </c>
+      <c r="G9" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
